--- a/DAT1genotypes_for_Matlab.xlsx
+++ b/DAT1genotypes_for_Matlab.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="85">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DAT1_10_10</t>
+  </si>
   <si>
     <t>LK_07_04_14</t>
   </si>
@@ -268,9 +274,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -588,11 +591,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -601,52 +602,52 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -654,183 +655,183 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>82</v>
@@ -838,271 +839,271 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>82</v>
@@ -1110,71 +1111,71 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
         <v>82</v>
@@ -1182,31 +1183,31 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
         <v>83</v>
@@ -1214,26 +1215,34 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/DAT1genotypes_for_Matlab.xlsx
+++ b/DAT1genotypes_for_Matlab.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>240M_FM</t>
   </si>
 </sst>
 </file>
@@ -309,8 +312,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,17 +597,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -609,7 +620,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -617,7 +628,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -625,7 +636,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -633,7 +644,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -641,7 +652,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -649,7 +660,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -657,7 +668,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -665,7 +676,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -673,7 +684,7 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -681,7 +692,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -689,7 +700,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -697,7 +708,7 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -705,7 +716,7 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -713,7 +724,7 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -721,7 +732,7 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -729,7 +740,7 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -737,7 +748,7 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -745,7 +756,7 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -753,7 +764,7 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -761,7 +772,7 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -769,7 +780,7 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -777,7 +788,7 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -785,7 +796,7 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -793,7 +804,7 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -801,7 +812,7 @@
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -809,7 +820,7 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -817,7 +828,7 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -825,7 +836,7 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -833,7 +844,7 @@
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -841,7 +852,7 @@
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -849,7 +860,7 @@
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -857,7 +868,7 @@
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -865,7 +876,7 @@
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -873,7 +884,7 @@
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -881,7 +892,7 @@
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -889,7 +900,7 @@
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -897,7 +908,7 @@
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -905,7 +916,7 @@
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -913,7 +924,7 @@
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -921,7 +932,7 @@
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -929,7 +940,7 @@
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -937,7 +948,7 @@
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -945,7 +956,7 @@
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -953,7 +964,7 @@
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -961,7 +972,7 @@
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -969,7 +980,7 @@
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -977,7 +988,7 @@
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -985,7 +996,7 @@
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -993,7 +1004,7 @@
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1001,7 +1012,7 @@
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1009,7 +1020,7 @@
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1017,7 +1028,7 @@
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1025,7 +1036,7 @@
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1033,7 +1044,7 @@
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1041,7 +1052,7 @@
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1049,7 +1060,7 @@
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1057,7 +1068,7 @@
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1065,7 +1076,7 @@
       <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1073,7 +1084,7 @@
       <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1081,7 +1092,7 @@
       <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1089,7 +1100,7 @@
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1097,7 +1108,7 @@
       <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1105,7 +1116,7 @@
       <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1113,7 +1124,7 @@
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1121,7 +1132,7 @@
       <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1129,7 +1140,7 @@
       <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1137,7 +1148,7 @@
       <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1145,7 +1156,7 @@
       <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1153,7 +1164,7 @@
       <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1161,7 +1172,7 @@
       <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1169,7 +1180,7 @@
       <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1177,7 +1188,7 @@
       <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1185,7 +1196,7 @@
       <c r="A74" t="s">
         <v>74</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1193,7 +1204,7 @@
       <c r="A75" t="s">
         <v>75</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1201,7 +1212,7 @@
       <c r="A76" t="s">
         <v>76</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1209,7 +1220,7 @@
       <c r="A77" t="s">
         <v>77</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1217,7 +1228,7 @@
       <c r="A78" t="s">
         <v>78</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1225,7 +1236,7 @@
       <c r="A79" t="s">
         <v>79</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1233,7 +1244,7 @@
       <c r="A80" t="s">
         <v>80</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1241,8 +1252,16 @@
       <c r="A81" t="s">
         <v>81</v>
       </c>
-      <c r="B81" t="s">
-        <v>82</v>
+      <c r="B81" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
